--- a/biology/Botanique/Metabionta/Metabionta.xlsx
+++ b/biology/Botanique/Metabionta/Metabionta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Le groupe des métabiontes (Metabionta) est constitué d'organismes autotrophes, réalisant la photosynthèse. Grossièrement, on peut dire que ce sont les algues rouges (Rhodobiontes) et les végétaux verts (Chlorobiontes). Les métabiontes peuvent être pluricellulaires, et même de grande taille (les arbres...).
 Voici un aperçu des caractères propres aux métabiontes :
@@ -515,7 +527,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>D’après Luc Brouillet (2004)[citation nécessaire] le groupe des métabiontes comprend les taxons suivants :
 rhodobiontes (Rhodophyta)
@@ -562,7 +576,9 @@
           <t>Arbre phylogénétique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">          ┌─────────────────────────────────────────────────────────Glaucophytes                      
 Plantes (sens large)    ┌───────────────────────────────────────────Rhodobiontes
